--- a/Document/7.Testing/TestCase_Sprint2.xlsx
+++ b/Document/7.Testing/TestCase_Sprint2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Booking accommodation" sheetId="1" r:id="rId1"/>
+    <sheet name="Search accommodation" sheetId="9" r:id="rId1"/>
     <sheet name="Update account" sheetId="2" r:id="rId2"/>
     <sheet name="Add zone" sheetId="3" r:id="rId3"/>
     <sheet name="Update zone" sheetId="4" r:id="rId4"/>
@@ -17,15 +17,15 @@
     <sheet name="Update room" sheetId="7" r:id="rId8"/>
     <sheet name="Delete room" sheetId="8" r:id="rId9"/>
     <sheet name="View list room" sheetId="14" r:id="rId10"/>
-    <sheet name="Search accommodation" sheetId="9" r:id="rId11"/>
+    <sheet name="Booking accommodation" sheetId="1" r:id="rId11"/>
     <sheet name="Module report" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="345">
   <si>
     <t>Blue Team</t>
   </si>
@@ -39,13 +39,7 @@
     <t>Module Name: Update information</t>
   </si>
   <si>
-    <t>Test Designed date: 10/11/2018</t>
-  </si>
-  <si>
     <t>Release Version: v1.0</t>
-  </si>
-  <si>
-    <t>Test Execution date:  10/11/2018</t>
   </si>
   <si>
     <t>Test Executed by: Huynh Vu Ha Lan</t>
@@ -638,9 +632,6 @@
     <t>The screen display "Bạn chonnj nhiều hơn 5 ảnh" message box.</t>
   </si>
   <si>
-    <t>TC_AR14</t>
-  </si>
-  <si>
     <t>Add a room without with negative number for acreage</t>
   </si>
   <si>
@@ -837,9 +828,6 @@
     <t>Cannot display page "View list zone"</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Module Name: View list of room</t>
   </si>
   <si>
@@ -865,12 +853,6 @@
   </si>
   <si>
     <t>Module Name: Search</t>
-  </si>
-  <si>
-    <t>Test Designed date: 23/09/2018</t>
-  </si>
-  <si>
-    <t>Test Execution date:  23/09/2018</t>
   </si>
   <si>
     <t>TC_S01</t>
@@ -1090,15 +1072,9 @@
     <t>Reviewer/Approver</t>
   </si>
   <si>
-    <t>Document Code</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1120,12 +1096,6 @@
     <t>Test coverage</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Test successful coverage</t>
-  </si>
-  <si>
     <t>Booking accommodation</t>
   </si>
   <si>
@@ -1168,145 +1138,180 @@
     <t>"Tên bạn": 'Hạ Lan'</t>
   </si>
   <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>Screen diplays "Cập nhật thành công" and that information is save in database.</t>
+  </si>
+  <si>
+    <t>TC_UI02</t>
+  </si>
+  <si>
+    <t>Update phone number</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '0375333265'</t>
+  </si>
+  <si>
+    <t>TC_UI03</t>
+  </si>
+  <si>
+    <t>Update password</t>
+  </si>
+  <si>
+    <t>"Mật khẩu": "1233abcd"</t>
+  </si>
+  <si>
+    <t>Screen diplays "Thay đổi mật khẩu thành công" and that information is save in database.</t>
+  </si>
+  <si>
+    <t>TC_UI04</t>
+  </si>
+  <si>
+    <t>Update with name contains special characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tên bạn": 'Ha // Lan'
+</t>
+  </si>
+  <si>
+    <t>TC_UI05</t>
+  </si>
+  <si>
+    <t>Update with name contains numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tên bạn": 'Ha12 Lan'
+</t>
+  </si>
+  <si>
+    <t>TC_UI06</t>
+  </si>
+  <si>
+    <t>Update with phone number contrain special characters.</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '0375333*(5'</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng nhập đúng số điện thoại".</t>
+  </si>
+  <si>
+    <t>TC_UI07</t>
+  </si>
+  <si>
+    <t>Update with phone number contrain alphabetical.</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '0375333ac5'</t>
+  </si>
+  <si>
+    <t>TC_UI08</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": Empty</t>
+  </si>
+  <si>
+    <t>TC_UI09</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '123456789'</t>
+  </si>
+  <si>
+    <t>TC_UI10</t>
+  </si>
+  <si>
+    <t>"Tên bạn": Empty</t>
+  </si>
+  <si>
+    <t>TC_AZ08</t>
+  </si>
+  <si>
+    <t>View exactly account information</t>
+  </si>
+  <si>
+    <t>Click on "Thông tin cá nhân"</t>
+  </si>
+  <si>
+    <t>View exactly that account information</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" item
 2) Enter information for "Tên bạn" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>Screen diplays "Cập nhật thành công" and that information is save in database.</t>
-  </si>
-  <si>
-    <t>TC_UI02</t>
-  </si>
-  <si>
-    <t>Update phone number</t>
-  </si>
-  <si>
-    <t>"Số điện thoại": '0375333265'</t>
-  </si>
-  <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Enter information for "Số điện thoại" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>TC_UI03</t>
-  </si>
-  <si>
-    <t>Update password</t>
-  </si>
-  <si>
-    <t>"Mật khẩu": "1233abcd"</t>
-  </si>
-  <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Enter information for "Mật khẩu" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>Screen diplays "Thay đổi mật khẩu thành công" and that information is save in database.</t>
-  </si>
-  <si>
-    <t>TC_UI04</t>
-  </si>
-  <si>
-    <t>Update with name contains special characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Tên bạn": 'Ha // Lan'
-</t>
-  </si>
-  <si>
-    <t>TC_UI05</t>
-  </si>
-  <si>
-    <t>Update with name contains numbers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Tên bạn": 'Ha12 Lan'
-</t>
-  </si>
-  <si>
-    <t>TC_UI06</t>
-  </si>
-  <si>
-    <t>Update with phone number contrain special characters.</t>
-  </si>
-  <si>
-    <t>"Số điện thoại": '0375333*(5'</t>
-  </si>
-  <si>
-    <t>The screen displays "Vui lòng nhập đúng số điện thoại".</t>
-  </si>
-  <si>
-    <t>TC_UI07</t>
-  </si>
-  <si>
-    <t>Update with phone number contrain alphabetical.</t>
-  </si>
-  <si>
-    <t>"Số điện thoại": '0375333ac5'</t>
-  </si>
-  <si>
-    <t>TC_UI08</t>
-  </si>
-  <si>
-    <t>Register without phone number.</t>
-  </si>
-  <si>
-    <t>"Số điện thoại": Empty</t>
-  </si>
-  <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>Update without phone number.</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" item
 2) Delete phone number in "Số điện thoại" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>TC_UI09</t>
-  </si>
-  <si>
-    <t>Register with valid phone number.</t>
-  </si>
-  <si>
-    <t>"Số điện thoại": '123456789'</t>
-  </si>
-  <si>
-    <t>TC_UI10</t>
-  </si>
-  <si>
-    <t>Register without name.</t>
-  </si>
-  <si>
-    <t>"Tên bạn": Empty</t>
-  </si>
-  <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>Update with valid phone number.</t>
+  </si>
+  <si>
+    <t>TC_UI11</t>
+  </si>
+  <si>
+    <t>Update without name.</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" item
 2) Delete name in "Tên bạn" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>TC_AZ06</t>
-  </si>
-  <si>
-    <t>TC_UR09</t>
-  </si>
-  <si>
-    <t>TC_UR010</t>
-  </si>
-  <si>
-    <t>TC_UR11</t>
-  </si>
-  <si>
-    <t>TC_UR12</t>
+    <t>TC_UI12</t>
+  </si>
+  <si>
+    <t>Update with invalid password</t>
+  </si>
+  <si>
+    <t>"Mật khẩu": 'abc'</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" item
+2) Delete name in "Mật khẩu" box
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng kiểm tra lại mật khẩu".</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
+  </si>
+  <si>
+    <t>Huynh Vu Ha Lan</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Test Designed date: 21/10/2018</t>
+  </si>
+  <si>
+    <t>Test Execution date:  21/10/2018</t>
+  </si>
+  <si>
+    <t>Test Execution date:  22/10/2018</t>
+  </si>
+  <si>
+    <t>Test Designed date: 22/10/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1398,13 +1403,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1436,6 +1434,11 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1464,19 +1467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
@@ -1638,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1672,9 +1675,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,12 +1730,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1748,137 +1742,140 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2184,200 +2181,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A4:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+    </row>
+    <row r="9" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A8:XFD9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2387,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,139 +2539,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>215</v>
+        <v>156</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>211</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="65"/>
+        <v>207</v>
+      </c>
+      <c r="B8" s="74"/>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2556,340 +2693,200 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J17"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="26" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="31" t="s">
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>26</v>
+      <c r="B9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:XFD9"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:E7"/>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2897,16 +2894,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
@@ -2915,7 +2912,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -2925,411 +2922,417 @@
       <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>271</v>
+      <c r="A3" s="35" t="s">
+        <v>265</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="77" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71" t="s">
+      <c r="G7" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>1</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="C8" s="38">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38">
+        <f>SUM(C8:F8)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="38">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="38">
+        <v>12</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G12" si="0">SUM(C9:F9)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="38">
+        <v>4</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <v>1</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="42">
-        <v>3</v>
-      </c>
-      <c r="D11" s="42">
+      <c r="C10" s="38">
+        <v>2</v>
+      </c>
+      <c r="D10" s="38">
         <v>0</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E10" s="55">
         <v>0</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F10" s="55">
         <v>0</v>
       </c>
-      <c r="G11" s="42">
-        <f>SUM(C11:F11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <f>A11+1</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="42">
-        <v>10</v>
-      </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="80">
-        <v>0</v>
-      </c>
-      <c r="F12" s="80">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <f t="shared" ref="G12:G15" si="0">SUM(C12:F12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>4</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="42">
-        <v>2</v>
-      </c>
-      <c r="D13" s="42">
-        <v>0</v>
-      </c>
-      <c r="E13" s="80">
-        <v>0</v>
-      </c>
-      <c r="F13" s="80">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
         <v>5</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="42">
-        <v>5</v>
-      </c>
-      <c r="D14" s="42">
+      <c r="B11" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="38">
+        <v>6</v>
+      </c>
+      <c r="D11" s="38">
         <v>2</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E11" s="55">
         <v>0</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F11" s="55">
         <v>0</v>
       </c>
-      <c r="G14" s="42">
-        <f t="shared" ref="G14" si="1">SUM(C14:F14)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="G11" s="38">
+        <f t="shared" ref="G11" si="1">SUM(C11:F11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="42">
+      <c r="B12" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="38">
         <v>6</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D12" s="38">
         <v>1</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80">
+      <c r="E12" s="55">
         <v>0</v>
       </c>
-      <c r="G15" s="42">
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>7</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="38">
+        <v>2</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>8</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="38">
+        <v>2</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>9</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="38">
+        <v>4</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="38">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="42">
+      <c r="A16" s="41">
+        <v>10</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="38">
+        <v>3</v>
+      </c>
+      <c r="D16" s="38">
+        <v>5</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>11</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="38">
         <v>1</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
         <v>2</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="42">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>12</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="38">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="42">
-        <v>2</v>
-      </c>
-      <c r="D17" s="42">
+      <c r="D18" s="38">
+        <v>4</v>
+      </c>
+      <c r="E18" s="55">
         <v>0</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="42">
-        <v>9</v>
-      </c>
-      <c r="D18" s="42">
-        <v>5</v>
-      </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="42">
-        <v>14</v>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="38">
+        <f>SUM(C18:F18)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="53" t="s">
-        <v>296</v>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
+        <v>277</v>
       </c>
       <c r="C19" s="42">
-        <v>7</v>
+        <f>SUM(C2:C12)</f>
+        <v>29</v>
       </c>
       <c r="D19" s="42">
-        <v>5</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
+        <f>SUM(D2:D12)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="56">
+        <f>SUM(E8:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <f>SUM(F8:F18)</f>
+        <v>0</v>
+      </c>
       <c r="G19" s="42">
-        <v>12</v>
+        <f>SUM(G8:G18)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="C20" s="42">
-        <v>1</v>
-      </c>
-      <c r="D20" s="42">
-        <v>1</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="42">
-        <v>2</v>
-      </c>
+      <c r="A20" s="44"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="42">
-        <v>2</v>
-      </c>
-      <c r="D21" s="42">
-        <v>5</v>
-      </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="42">
-        <v>7</v>
-      </c>
+      <c r="A21" s="33"/>
+      <c r="B21" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="59">
+        <f>C19/G19*100</f>
+        <v>40.277777777777779</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="46">
-        <f>SUM(C2:C15)</f>
-        <v>26</v>
-      </c>
-      <c r="D22" s="46">
-        <f>SUM(D2:D15)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="81">
-        <f>SUM(E2:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="46">
-        <f>SUM(G11:G21)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="52"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3337,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,57 +3358,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -3422,321 +3425,377 @@
     </row>
     <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:9" s="54" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="C11" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C12" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E12" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C13" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="E13" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="G13" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="C14" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="E14" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="E15" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="E16" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="54" t="s">
+      <c r="E17" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="F17" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="B18" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="C18" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F18" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>33</v>
+      <c r="G18" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3758,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,291 +3835,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="E10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4083,8 +4142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,304 +4160,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="B2" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4421,14 +4480,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="31.140625" customWidth="1"/>
@@ -4437,169 +4497,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4623,7 +4689,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4639,142 +4705,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
+      <c r="A8" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4797,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,494 +4880,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="D7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="E9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="E10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="E12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="E14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>33</v>
+        <v>125</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="E16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="G16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>59</v>
+      <c r="H16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="E17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>59</v>
+      <c r="H17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="E18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>26</v>
+      <c r="H18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="E19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>26</v>
+      <c r="G20" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5324,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,436 +5406,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="69"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5792,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,138 +5875,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="69"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="71"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>94</v>
+        <v>190</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>92</v>
+      <c r="G8" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
